--- a/LF/PreTAS/Mozambique/November 2021/mz_lf_pretas_2_participant_202111.xlsx
+++ b/LF/PreTAS/Mozambique/November 2021/mz_lf_pretas_2_participant_202111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="199">
   <si>
     <t>type</t>
   </si>
@@ -102,13 +102,13 @@
     <t>string</t>
   </si>
   <si>
-    <t>p_eu</t>
-  </si>
-  <si>
-    <t>Select your evaluation unit (EU)</t>
-  </si>
-  <si>
-    <t>Selecione a unidade de avaliação (UA)</t>
+    <t>p_province</t>
+  </si>
+  <si>
+    <t>Select your province</t>
+  </si>
+  <si>
+    <t>Selecione  o Província</t>
   </si>
   <si>
     <t>p_district</t>
@@ -150,129 +150,195 @@
     <t>O entrevistado deu o  consentimento?</t>
   </si>
   <si>
+    <t>select_one residence_type</t>
+  </si>
+  <si>
+    <t>p_residence_type</t>
+  </si>
+  <si>
+    <t>Residence area</t>
+  </si>
+  <si>
+    <t>Zona de residência</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Sim'</t>
+  </si>
+  <si>
+    <t>select_one house_type</t>
+  </si>
+  <si>
+    <t>p_house_type</t>
+  </si>
+  <si>
+    <t>Type of housing</t>
+  </si>
+  <si>
+    <t>Tipo de habitação</t>
+  </si>
+  <si>
+    <t>select_one education_degree</t>
+  </si>
+  <si>
+    <t>p_education_degree</t>
+  </si>
+  <si>
+    <t>Degree of education</t>
+  </si>
+  <si>
+    <t>Grau de escolaridade</t>
+  </si>
+  <si>
+    <t>select_one occupation</t>
+  </si>
+  <si>
+    <t>p_occupation</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Ocupação</t>
+  </si>
+  <si>
+    <t>select_one yes_no_r</t>
+  </si>
+  <si>
+    <t>p_participate_last_mda</t>
+  </si>
+  <si>
+    <t>Adherence to the latest preventive chemotherapy (MDA campaigns):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adesão a última quimioterapia preventiva (campanhas de MDA): </t>
+  </si>
+  <si>
+    <t>p_possess_net</t>
+  </si>
+  <si>
+    <t>Preventive measures against mosquitoes: Possession of mosquito net: Yes/No</t>
+  </si>
+  <si>
+    <t>Medidas preventivas contra mosquitos: Posse de rede mosquiteira: Sim/Não</t>
+  </si>
+  <si>
+    <t>p_use_net</t>
+  </si>
+  <si>
+    <t>Preventive measures against mosquitoes: Use mosquito net: Yes/No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medidas preventivas contra mosquitos: Uso rede mosquiteira: Sim/Não </t>
+  </si>
+  <si>
+    <t>select_one disease_knowledge</t>
+  </si>
+  <si>
+    <t>p_disease_knowledge</t>
+  </si>
+  <si>
+    <t>Knowledge of the disease (symptoms/signs):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conhecimento da doença (sintomas/sinais): </t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>p_disease_knowledge_other</t>
+  </si>
+  <si>
+    <t>Please specify other</t>
+  </si>
+  <si>
+    <t>Por favor, especifique outro</t>
+  </si>
+  <si>
+    <t>${p_disease_knowledge} = 'Outro'</t>
+  </si>
+  <si>
+    <t>select_one sex_list</t>
+  </si>
+  <si>
+    <t>p_sex</t>
+  </si>
+  <si>
+    <t>Sex of respondent</t>
+  </si>
+  <si>
+    <t>Sexo do entrevistado</t>
+  </si>
+  <si>
+    <t>p_age_yrs</t>
+  </si>
+  <si>
+    <t>Enter age in years</t>
+  </si>
+  <si>
+    <t>Introduza a idade em anos</t>
+  </si>
+  <si>
+    <t>. &gt;= 6 and . &lt;= 7</t>
+  </si>
+  <si>
+    <t>The age must be between 6 and 7 years</t>
+  </si>
+  <si>
+    <t>A idade deve estar entre 6 e 7 anos</t>
+  </si>
+  <si>
+    <t>p_how_long_lived</t>
+  </si>
+  <si>
+    <t>How many years has the respondent lived in the area?</t>
+  </si>
+  <si>
+    <t>Há quantos anos o entrevistado vive na área?</t>
+  </si>
+  <si>
+    <t>. &lt;= ${p_age_yrs}</t>
+  </si>
+  <si>
+    <t>The value must not be greater than the age</t>
+  </si>
+  <si>
+    <t>O valor não deve ser maior que a idade</t>
+  </si>
+  <si>
+    <t>p_id_sequence</t>
+  </si>
+  <si>
+    <t>Enter the sequence ID</t>
+  </si>
+  <si>
+    <t>Digite o número do participante</t>
+  </si>
+  <si>
+    <t>. &gt; 0</t>
+  </si>
+  <si>
+    <t>The number must be greater than 0</t>
+  </si>
+  <si>
+    <t>O número deve ser maior que 0</t>
+  </si>
+  <si>
+    <t>p_code_id</t>
+  </si>
+  <si>
+    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered</t>
+  </si>
+  <si>
+    <t>Registre o codigo exclusivo do entrevistadoem cada teste de diagnostico administrado</t>
+  </si>
+  <si>
+    <t>concat(${p_cluster_id}, '-', ${p_recorder_id}, '-', ${p_id_sequence})</t>
+  </si>
+  <si>
     <t>note</t>
   </si>
   <si>
-    <t>p_mosquito_prevent</t>
-  </si>
-  <si>
-    <t>Medidas preventivas contra mosquitos</t>
-  </si>
-  <si>
-    <t>Preventive measures against mosquitoes</t>
-  </si>
-  <si>
-    <t>p_possess_net</t>
-  </si>
-  <si>
-    <t>Mosquito net possession: Yes / No</t>
-  </si>
-  <si>
-    <t>Posse de mosquiteiro: Sim / Não</t>
-  </si>
-  <si>
-    <t>p_use_net</t>
-  </si>
-  <si>
-    <t>Use of mosquito net: Yes / No</t>
-  </si>
-  <si>
-    <t>Uso mosquiteiro: Sim / Não</t>
-  </si>
-  <si>
-    <t>select_one building_type</t>
-  </si>
-  <si>
-    <t>p_building_type</t>
-  </si>
-  <si>
-    <t>Type of house/building</t>
-  </si>
-  <si>
-    <t>Tipo de casa/construcao</t>
-  </si>
-  <si>
-    <t>select_one sex_list</t>
-  </si>
-  <si>
-    <t>p_sex</t>
-  </si>
-  <si>
-    <t>Sex of respondent</t>
-  </si>
-  <si>
-    <t>Sexo do entrevistado</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'Sim'</t>
-  </si>
-  <si>
-    <t>p_age_yrs</t>
-  </si>
-  <si>
-    <t>Enter age in years</t>
-  </si>
-  <si>
-    <t>Introduza a idade em anos</t>
-  </si>
-  <si>
-    <t>. &gt;= 6 and . &lt;= 7</t>
-  </si>
-  <si>
-    <t>The age must be between 6 and 7 years</t>
-  </si>
-  <si>
-    <t>A idade deve estar entre 6 e 7 anos</t>
-  </si>
-  <si>
-    <t>p_how_long_lived</t>
-  </si>
-  <si>
-    <t>How many years has the respondent lived in the area?</t>
-  </si>
-  <si>
-    <t>Há quantos anos o entrevistado vive na área?</t>
-  </si>
-  <si>
-    <t>. &lt;= ${p_age_yrs}</t>
-  </si>
-  <si>
-    <t>The value must not be greater than the age</t>
-  </si>
-  <si>
-    <t>O valor não deve ser maior que a idade</t>
-  </si>
-  <si>
-    <t>p_id_sequence</t>
-  </si>
-  <si>
-    <t>Enter the sequence ID</t>
-  </si>
-  <si>
-    <t>Digite o número do participante</t>
-  </si>
-  <si>
-    <t>. &gt; 0</t>
-  </si>
-  <si>
-    <t>The number must be greater than 0</t>
-  </si>
-  <si>
-    <t>O número deve ser maior que 0</t>
-  </si>
-  <si>
-    <t>p_code_id</t>
-  </si>
-  <si>
-    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered</t>
-  </si>
-  <si>
-    <t>Registre o codigo exclusivo do entrevistadoem cada teste de diagnostico administrado</t>
-  </si>
-  <si>
-    <t>concat(${p_cluster_id}, '-', ${p_recorder_id}, '-', ${p_id_sequence})</t>
-  </si>
-  <si>
     <t>p_ending_survey_note</t>
   </si>
   <si>
@@ -285,9 +351,6 @@
     <t>${p_consent} = 'Nao'</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>p_notes</t>
   </si>
   <si>
@@ -348,36 +411,192 @@
     <t>Female</t>
   </si>
   <si>
-    <t>building_type</t>
-  </si>
-  <si>
-    <t>Construção convencional</t>
-  </si>
-  <si>
-    <t>conventional construction</t>
-  </si>
-  <si>
-    <t>Vara e pique</t>
-  </si>
-  <si>
-    <t>stick and chop</t>
-  </si>
-  <si>
-    <t>Madeira e zinco</t>
+    <t>residence_type</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Urbana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urban </t>
+  </si>
+  <si>
+    <t>house_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construção convencional </t>
+  </si>
+  <si>
+    <t>Conventional construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pau a pique </t>
+  </si>
+  <si>
+    <t>Rickety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madeira e zinco </t>
   </si>
   <si>
     <t>Wood and zinc</t>
   </si>
   <si>
-    <t>Material local</t>
-  </si>
-  <si>
-    <t>local material</t>
+    <t xml:space="preserve">Material local </t>
+  </si>
+  <si>
+    <t>Local material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adobe </t>
   </si>
   <si>
     <t>Adobe</t>
   </si>
   <si>
+    <t>education_degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nunca frequentou a escola </t>
+  </si>
+  <si>
+    <t>never attended school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensino primário </t>
+  </si>
+  <si>
+    <t>Primary school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensino Secundário </t>
+  </si>
+  <si>
+    <t>High school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensino Técnico profissional </t>
+  </si>
+  <si>
+    <t>professional technical education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensino Superior </t>
+  </si>
+  <si>
+    <t>University education</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desempregado </t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudante </t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultor </t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pescador </t>
+  </si>
+  <si>
+    <t>Fisherman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silvicultura </t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Função publica </t>
+  </si>
+  <si>
+    <t>Public function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empreendedor </t>
+  </si>
+  <si>
+    <t>Entrepreneur</t>
+  </si>
+  <si>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>yes_no_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim </t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não </t>
+  </si>
+  <si>
+    <t>Não me lembro</t>
+  </si>
+  <si>
+    <t>I do not remember</t>
+  </si>
+  <si>
+    <t>disease_knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidrocelo </t>
+  </si>
+  <si>
+    <t>hydrocele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paralisia  </t>
+  </si>
+  <si>
+    <t>Paralysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linfedema </t>
+  </si>
+  <si>
+    <t>lymphedema</t>
+  </si>
+  <si>
+    <t>Barriga grande</t>
+  </si>
+  <si>
+    <t>Big belly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hematuria </t>
+  </si>
+  <si>
+    <t>Hematuria</t>
+  </si>
+  <si>
+    <t>Other --------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outro -------------- </t>
+  </si>
+  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -387,10 +606,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Nov 2021) TAS2 FL - 2. Inscrição V2</t>
-  </si>
-  <si>
-    <t>mz_lf_tas2_2_participant_202111_v2</t>
+    <t>(Nov 2021) Pre-TAS FL - 2. Inscrição</t>
+  </si>
+  <si>
+    <t>mz_lf_pretas_2_participant_202111</t>
   </si>
   <si>
     <t>Portuguese</t>
@@ -402,9 +621,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -456,17 +675,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,19 +705,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,14 +738,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -528,21 +745,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,6 +761,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,26 +782,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -593,10 +797,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -621,187 +840,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,21 +1064,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -894,21 +1098,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -925,6 +1114,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -934,159 +1132,180 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1499,20 +1718,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.6266666666667" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="23.6" customWidth="1"/>
+    <col min="2" max="2" width="18.8" customWidth="1"/>
     <col min="3" max="3" width="42.6266666666667" customWidth="1"/>
     <col min="4" max="4" width="41.2533333333333" customWidth="1"/>
     <col min="5" max="5" width="47.5" customWidth="1"/>
@@ -1759,7 +1978,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="31.5" spans="1:16">
+    <row r="8" s="3" customFormat="1" spans="1:16">
       <c r="A8" s="8" t="s">
         <v>44</v>
       </c>
@@ -1778,7 +1997,9 @@
       <c r="H8" s="11"/>
       <c r="I8" s="10"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -1787,24 +2008,26 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:16">
       <c r="A9" s="8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="9"/>
       <c r="H9" s="11"/>
       <c r="I9" s="10"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1813,24 +2036,26 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:16">
       <c r="A10" s="8" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="9"/>
       <c r="H10" s="11"/>
       <c r="I10" s="10"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -1839,290 +2064,432 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:16">
       <c r="A11" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="9"/>
       <c r="H11" s="11"/>
       <c r="I11" s="10"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:16">
+    <row r="12" s="3" customFormat="1" ht="31.5" spans="1:16">
       <c r="A12" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="27"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="L12" s="9"/>
-      <c r="M12" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" s="5" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>63</v>
+    <row r="13" s="3" customFormat="1" ht="31.5" spans="1:16">
+      <c r="A13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="L13" s="9"/>
-      <c r="M13" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="31.5" spans="1:16">
       <c r="A14" s="8" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:16">
+      <c r="A15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="9" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="47.25" spans="1:16">
+      <c r="A16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:16">
+      <c r="A17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:13">
-      <c r="A15" s="3" t="s">
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" s="5" customFormat="1" customHeight="1" spans="1:16">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="31.5" spans="1:16">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:13">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="H20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="47.25" spans="1:17">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="31.5" spans="1:16">
+      <c r="A22" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:16">
+      <c r="A23" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="H15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="47.25" spans="1:17">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="31.5" spans="1:16">
-      <c r="A17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:16">
-      <c r="A18" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:16">
-      <c r="A19" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="B23" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:16">
+      <c r="A24" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2134,12 +2501,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:A11"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -2152,7 +2519,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2164,133 +2531,469 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2307,8 +3010,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2319,24 +3022,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Mozambique/November 2021/mz_lf_pretas_2_participant_202111.xlsx
+++ b/LF/PreTAS/Mozambique/November 2021/mz_lf_pretas_2_participant_202111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -150,6 +150,87 @@
     <t>O entrevistado deu o  consentimento?</t>
   </si>
   <si>
+    <t>select_one sex_list</t>
+  </si>
+  <si>
+    <t>p_sex</t>
+  </si>
+  <si>
+    <t>Sex of respondent</t>
+  </si>
+  <si>
+    <t>Sexo do entrevistado</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Sim'</t>
+  </si>
+  <si>
+    <t>p_age_yrs</t>
+  </si>
+  <si>
+    <t>Enter age in years</t>
+  </si>
+  <si>
+    <t>Introduza a idade em anos</t>
+  </si>
+  <si>
+    <t>. &gt;= 5 and . &lt;= 150</t>
+  </si>
+  <si>
+    <t>The age must be between 5 and 150 years</t>
+  </si>
+  <si>
+    <t>A idade deve estar entre 5 e 150 anos</t>
+  </si>
+  <si>
+    <t>p_how_long_lived</t>
+  </si>
+  <si>
+    <t>How many years has the respondent lived in the area?</t>
+  </si>
+  <si>
+    <t>Há quantos anos o entrevistado vive na área?</t>
+  </si>
+  <si>
+    <t>. &lt;= ${p_age_yrs}</t>
+  </si>
+  <si>
+    <t>The value must not be greater than the age</t>
+  </si>
+  <si>
+    <t>O valor não deve ser maior que a idade</t>
+  </si>
+  <si>
+    <t>p_id_sequence</t>
+  </si>
+  <si>
+    <t>Enter the sequence ID</t>
+  </si>
+  <si>
+    <t>Digite o número do participante</t>
+  </si>
+  <si>
+    <t>. &gt; 0</t>
+  </si>
+  <si>
+    <t>The number must be greater than 0</t>
+  </si>
+  <si>
+    <t>O número deve ser maior que 0</t>
+  </si>
+  <si>
+    <t>p_code_id</t>
+  </si>
+  <si>
+    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered</t>
+  </si>
+  <si>
+    <t>Registre o codigo exclusivo do entrevistadoem cada teste de diagnostico administrado</t>
+  </si>
+  <si>
+    <t>concat(${p_cluster_id}, '-', ${p_recorder_id}, '-', ${p_id_sequence})</t>
+  </si>
+  <si>
     <t>select_one residence_type</t>
   </si>
   <si>
@@ -162,9 +243,6 @@
     <t>Zona de residência</t>
   </si>
   <si>
-    <t>${p_consent} = 'Sim'</t>
-  </si>
-  <si>
     <t>select_one house_type</t>
   </si>
   <si>
@@ -258,84 +336,6 @@
     <t>${p_disease_knowledge} = 'Outro'</t>
   </si>
   <si>
-    <t>select_one sex_list</t>
-  </si>
-  <si>
-    <t>p_sex</t>
-  </si>
-  <si>
-    <t>Sex of respondent</t>
-  </si>
-  <si>
-    <t>Sexo do entrevistado</t>
-  </si>
-  <si>
-    <t>p_age_yrs</t>
-  </si>
-  <si>
-    <t>Enter age in years</t>
-  </si>
-  <si>
-    <t>Introduza a idade em anos</t>
-  </si>
-  <si>
-    <t>. &gt;= 6 and . &lt;= 7</t>
-  </si>
-  <si>
-    <t>The age must be between 6 and 7 years</t>
-  </si>
-  <si>
-    <t>A idade deve estar entre 6 e 7 anos</t>
-  </si>
-  <si>
-    <t>p_how_long_lived</t>
-  </si>
-  <si>
-    <t>How many years has the respondent lived in the area?</t>
-  </si>
-  <si>
-    <t>Há quantos anos o entrevistado vive na área?</t>
-  </si>
-  <si>
-    <t>. &lt;= ${p_age_yrs}</t>
-  </si>
-  <si>
-    <t>The value must not be greater than the age</t>
-  </si>
-  <si>
-    <t>O valor não deve ser maior que a idade</t>
-  </si>
-  <si>
-    <t>p_id_sequence</t>
-  </si>
-  <si>
-    <t>Enter the sequence ID</t>
-  </si>
-  <si>
-    <t>Digite o número do participante</t>
-  </si>
-  <si>
-    <t>. &gt; 0</t>
-  </si>
-  <si>
-    <t>The number must be greater than 0</t>
-  </si>
-  <si>
-    <t>O número deve ser maior que 0</t>
-  </si>
-  <si>
-    <t>p_code_id</t>
-  </si>
-  <si>
-    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered</t>
-  </si>
-  <si>
-    <t>Registre o codigo exclusivo do entrevistadoem cada teste de diagnostico administrado</t>
-  </si>
-  <si>
-    <t>concat(${p_cluster_id}, '-', ${p_recorder_id}, '-', ${p_id_sequence})</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -606,10 +606,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Nov 2021) Pre-TAS FL - 2. Inscrição</t>
-  </si>
-  <si>
-    <t>mz_lf_pretas_2_participant_202111</t>
+    <t>(Nov 2021) Pre-TAS FL - 2. Inscrição V2</t>
+  </si>
+  <si>
+    <t>mz_lf_pretas_2_participant_202111_v2</t>
   </si>
   <si>
     <t>Portuguese</t>
@@ -620,10 +620,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -675,11 +675,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,41 +729,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -744,30 +752,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,15 +776,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,11 +811,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -840,19 +840,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +966,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,145 +1014,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,30 +1074,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1115,8 +1091,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,6 +1119,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,166 +1161,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1720,12 +1720,12 @@
   <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="$A8:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1994,143 +1994,166 @@
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="20"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="M8" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:16">
-      <c r="A9" s="8" t="s">
+    <row r="9" s="5" customFormat="1" customHeight="1" spans="1:16">
+      <c r="A9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="20"/>
+      <c r="H9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="K9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="M9" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:16">
+    <row r="10" s="3" customFormat="1" ht="31.5" spans="1:16">
       <c r="A10" s="8" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="20"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="9" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:16">
-      <c r="A11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:13">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="14"/>
       <c r="E11" s="20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="9" t="s">
+      <c r="H11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="31.5" spans="1:16">
-      <c r="A12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="9" t="s">
+      <c r="M11" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="47.25" spans="1:17">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="31.5" spans="1:16">
+      <c r="L12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:16">
       <c r="A13" s="8" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="9"/>
@@ -2146,19 +2169,19 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="31.5" spans="1:16">
+    <row r="14" s="3" customFormat="1" spans="1:16">
       <c r="A14" s="8" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="20" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="9"/>
@@ -2176,17 +2199,17 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:16">
       <c r="A15" s="8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="20" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="9"/>
@@ -2202,19 +2225,19 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" s="3" customFormat="1" ht="47.25" spans="1:16">
+    <row r="16" s="3" customFormat="1" spans="1:16">
       <c r="A16" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="20" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="9"/>
@@ -2222,7 +2245,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="20"/>
       <c r="K16" s="9" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -2230,168 +2253,145 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:16">
+    <row r="17" s="3" customFormat="1" ht="31.5" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="20" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="27"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="9" t="s">
         <v>48</v>
       </c>
       <c r="L17" s="9"/>
-      <c r="M17" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" s="5" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>84</v>
+    <row r="18" s="3" customFormat="1" ht="31.5" spans="1:16">
+      <c r="A18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="20" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="9" t="s">
         <v>48</v>
       </c>
       <c r="L18" s="9"/>
-      <c r="M18" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="31.5" spans="1:16">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F19" s="20"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="11" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:13">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:16">
+      <c r="A20" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="B20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="10"/>
       <c r="E20" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F20" s="20"/>
-      <c r="H20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="J20" s="27" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="47.25" spans="1:16">
+      <c r="A21" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="47.25" spans="1:17">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="23" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="M21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
     </row>
     <row r="22" s="3" customFormat="1" ht="31.5" spans="1:16">
       <c r="A22" s="8" t="s">
@@ -2423,7 +2423,7 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:16">
       <c r="A23" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>111</v>
@@ -3010,8 +3010,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/LF/PreTAS/Mozambique/November 2021/mz_lf_pretas_2_participant_202111.xlsx
+++ b/LF/PreTAS/Mozambique/November 2021/mz_lf_pretas_2_participant_202111.xlsx
@@ -15,8 +15,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>SERGIO TOMAS</author>
+  </authors>
+  <commentList>
+    <comment ref="D52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>SERGIO TOMAS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Replaced Função pública by Funcionário Público and replace label in english to portuguese</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="226">
   <si>
     <t>type</t>
   </si>
@@ -69,102 +101,105 @@
     <t>read_only</t>
   </si>
   <si>
+    <t>select_one recorder_list</t>
+  </si>
+  <si>
+    <t>p_recorder_id</t>
+  </si>
+  <si>
+    <t>Enter Recorder ID</t>
+  </si>
+  <si>
+    <t>If you are the only recorder on your team, this may be called a "team ID". Recorder ID is the 2-digit code assigned to you or your team.</t>
+  </si>
+  <si>
+    <t>Insira o ID do inqueridor</t>
+  </si>
+  <si>
+    <t>Se você for o único registrador/inqueridor na sua equipe, isso pode ser chamado de "ID de equipe". ID do inqueridor é o código de 2 dígitos fornecido a você ou à sua equipe.</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{2}$')</t>
+  </si>
+  <si>
+    <t>The code must be a two-digit number between 9 and 100</t>
+  </si>
+  <si>
+    <t>O código deve ser um número de dois dígitos entre 9 e 100</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>p_province</t>
+  </si>
+  <si>
+    <t>Select your province</t>
+  </si>
+  <si>
+    <t>Selecione  o Província</t>
+  </si>
+  <si>
+    <t>p_district</t>
+  </si>
+  <si>
+    <t>Select your district</t>
+  </si>
+  <si>
+    <t>Selecione o distrito</t>
+  </si>
+  <si>
+    <t>p_cluster_name</t>
+  </si>
+  <si>
+    <t>Select your cluster</t>
+  </si>
+  <si>
+    <t>Selecione o conglomerado (Comunidade)</t>
+  </si>
+  <si>
+    <t>p_cluster_id</t>
+  </si>
+  <si>
+    <t>Select Cluster code</t>
+  </si>
+  <si>
+    <t>Selecione o código do conglomerado (Comunidade)</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>p_consent</t>
+  </si>
+  <si>
+    <t>Does respondent provide consent?</t>
+  </si>
+  <si>
+    <t>O entrevistado deu o  consentimento?</t>
+  </si>
+  <si>
+    <t>select_one sex_list</t>
+  </si>
+  <si>
+    <t>p_sex</t>
+  </si>
+  <si>
+    <t>Sex of respondent</t>
+  </si>
+  <si>
+    <t>Sexo do entrevistado</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Sim'</t>
+  </si>
+  <si>
     <t>integer</t>
   </si>
   <si>
-    <t>p_recorder_id</t>
-  </si>
-  <si>
-    <t>Enter Recorder ID</t>
-  </si>
-  <si>
-    <t>If you are the only recorder on your team, this may be called a "team ID". Recorder ID is the 2-digit code assigned to you or your team.</t>
-  </si>
-  <si>
-    <t>Insira o ID do inqueridor</t>
-  </si>
-  <si>
-    <t>Se você for o único registrador/inqueridor na sua equipe, isso pode ser chamado de "ID de equipe". ID do inqueridor é o código de 2 dígitos fornecido a você ou à sua equipe.</t>
-  </si>
-  <si>
-    <t>regex(.,'^[0-9]{2}$')</t>
-  </si>
-  <si>
-    <t>The code must be a two-digit number between 9 and 100</t>
-  </si>
-  <si>
-    <t>O código deve ser um número de dois dígitos entre 9 e 100</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>p_province</t>
-  </si>
-  <si>
-    <t>Select your province</t>
-  </si>
-  <si>
-    <t>Selecione  o Província</t>
-  </si>
-  <si>
-    <t>p_district</t>
-  </si>
-  <si>
-    <t>Select your district</t>
-  </si>
-  <si>
-    <t>Selecione o distrito</t>
-  </si>
-  <si>
-    <t>p_cluster_name</t>
-  </si>
-  <si>
-    <t>Select your cluster</t>
-  </si>
-  <si>
-    <t>Selecione o conglomerado (Comunidade)</t>
-  </si>
-  <si>
-    <t>p_cluster_id</t>
-  </si>
-  <si>
-    <t>Select Cluster code</t>
-  </si>
-  <si>
-    <t>Selecione o código do conglomerado (Comunidade)</t>
-  </si>
-  <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>p_consent</t>
-  </si>
-  <si>
-    <t>Does respondent provide consent?</t>
-  </si>
-  <si>
-    <t>O entrevistado deu o  consentimento?</t>
-  </si>
-  <si>
-    <t>select_one sex_list</t>
-  </si>
-  <si>
-    <t>p_sex</t>
-  </si>
-  <si>
-    <t>Sex of respondent</t>
-  </si>
-  <si>
-    <t>Sexo do entrevistado</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'Sim'</t>
-  </si>
-  <si>
     <t>p_age_yrs</t>
   </si>
   <si>
@@ -378,6 +413,81 @@
     <t>eu_list</t>
   </si>
   <si>
+    <t>recorder_list</t>
+  </si>
+  <si>
+    <t>Team_1 - Código (10)</t>
+  </si>
+  <si>
+    <t>Team_2 - Código (11)</t>
+  </si>
+  <si>
+    <t>Team_3 - Código (12)</t>
+  </si>
+  <si>
+    <t>Team_4 - Código (13)</t>
+  </si>
+  <si>
+    <t>Team_5 - Código (14)</t>
+  </si>
+  <si>
+    <t>Team_6 - Código (15)</t>
+  </si>
+  <si>
+    <t>Team_7 - Código (16)</t>
+  </si>
+  <si>
+    <t>Team_8 - Código (17)</t>
+  </si>
+  <si>
+    <t>Team_9 - Código (18)</t>
+  </si>
+  <si>
+    <t>Team_10 - Código (19)</t>
+  </si>
+  <si>
+    <t>Team_11 - Código (20)</t>
+  </si>
+  <si>
+    <t>Team_12 - Código (21)</t>
+  </si>
+  <si>
+    <t>Team_13 - Código (22)</t>
+  </si>
+  <si>
+    <t>Team_14 - Código (23)</t>
+  </si>
+  <si>
+    <t>Team_15 - Código (24)</t>
+  </si>
+  <si>
+    <t>Team_16 - Código (25)</t>
+  </si>
+  <si>
+    <t>Team_17 - Código (26)</t>
+  </si>
+  <si>
+    <t>Team_18 - Código (27)</t>
+  </si>
+  <si>
+    <t>Team_19 - Código (28)</t>
+  </si>
+  <si>
+    <t>Team_20 - Código (29)</t>
+  </si>
+  <si>
+    <t>Team_21 - Código (30)</t>
+  </si>
+  <si>
+    <t>Team_22 - Código (31)</t>
+  </si>
+  <si>
+    <t>Team_23 - Código (32)</t>
+  </si>
+  <si>
+    <t>Team_24 - Código (33)</t>
+  </si>
+  <si>
     <t>yes_no</t>
   </si>
   <si>
@@ -450,10 +560,13 @@
     <t>Local material</t>
   </si>
   <si>
-    <t xml:space="preserve">Adobe </t>
-  </si>
-  <si>
-    <t>Adobe</t>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>Other --------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outro -------------- </t>
   </si>
   <si>
     <t>education_degree</t>
@@ -510,6 +623,9 @@
     <t>Farmer</t>
   </si>
   <si>
+    <t>Campones</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pescador </t>
   </si>
   <si>
@@ -522,7 +638,10 @@
     <t>Forestry</t>
   </si>
   <si>
-    <t xml:space="preserve">Função publica </t>
+    <t>Domestico</t>
+  </si>
+  <si>
+    <t>Funcionário Público</t>
   </si>
   <si>
     <t>Public function</t>
@@ -534,7 +653,7 @@
     <t>Entrepreneur</t>
   </si>
   <si>
-    <t>Outro</t>
+    <t>Comerciante</t>
   </si>
   <si>
     <t>Other</t>
@@ -591,12 +710,6 @@
     <t>Hematuria</t>
   </si>
   <si>
-    <t>Other --------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outro -------------- </t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -606,10 +719,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Nov 2021) Pre-TAS FL - 2. Inscrição V2</t>
-  </si>
-  <si>
-    <t>mz_lf_pretas_2_participant_202111_v2</t>
+    <t>(Nov 2021) Pre-TAS FL - 2. Inscrição V2.1</t>
+  </si>
+  <si>
+    <t>mz_lf_pretas_2_participant_202111_v2_1</t>
   </si>
   <si>
     <t>Portuguese</t>
@@ -620,12 +733,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -675,23 +788,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -706,46 +804,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -754,7 +821,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,14 +866,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,14 +879,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -811,20 +886,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -840,7 +970,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,43 +1108,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,137 +1150,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1068,22 +1213,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,7 +1222,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,16 +1284,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,170 +1306,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1318,79 +1463,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1725,416 +1876,416 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="$A8:$XFD12"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.6" customWidth="1"/>
-    <col min="2" max="2" width="18.8" customWidth="1"/>
-    <col min="3" max="3" width="42.6266666666667" customWidth="1"/>
-    <col min="4" max="4" width="41.2533333333333" customWidth="1"/>
-    <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="47.3733333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.6266666666667" customWidth="1"/>
-    <col min="8" max="8" width="16.8733333333333" customWidth="1"/>
-    <col min="9" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="11" width="20.3733333333333" customWidth="1"/>
-    <col min="12" max="12" width="12.6266666666667" customWidth="1"/>
-    <col min="13" max="13" width="9.75333333333333" customWidth="1"/>
-    <col min="14" max="14" width="35.3733333333333" customWidth="1"/>
-    <col min="15" max="15" width="13.8733333333333" customWidth="1"/>
-    <col min="16" max="16" width="36.6266666666667" customWidth="1"/>
+    <col min="1" max="1" width="23.6222222222222" customWidth="1"/>
+    <col min="2" max="2" width="18.7481481481481" customWidth="1"/>
+    <col min="3" max="3" width="42.6222222222222" customWidth="1"/>
+    <col min="4" max="4" width="41.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="47.5037037037037" customWidth="1"/>
+    <col min="6" max="6" width="47.3777777777778" customWidth="1"/>
+    <col min="7" max="7" width="12.6222222222222" customWidth="1"/>
+    <col min="8" max="8" width="16.8740740740741" customWidth="1"/>
+    <col min="9" max="10" width="29.5037037037037" customWidth="1"/>
+    <col min="11" max="11" width="20.3777777777778" customWidth="1"/>
+    <col min="12" max="12" width="12.6222222222222" customWidth="1"/>
+    <col min="13" max="13" width="9.74814814814815" customWidth="1"/>
+    <col min="14" max="14" width="35.3777777777778" customWidth="1"/>
+    <col min="15" max="15" width="13.8740740740741" customWidth="1"/>
+    <col min="16" max="16" width="36.6222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="36" spans="1:17">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="63" spans="1:16">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="3" customFormat="1" ht="42.75" spans="1:16">
+      <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="8"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:16">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="11"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:16">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="11"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:16">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="11"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:16">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="11"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:16">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:16">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="9" t="s">
+      <c r="F8" s="24"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9" t="s">
+      <c r="L8" s="13"/>
+      <c r="M8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" s="5" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" s="9" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="20" t="s">
+      <c r="C9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="F9" s="24"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="I9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="J9" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9" t="s">
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="31.5" spans="1:16">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="28.5" spans="1:16">
+      <c r="A10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="20" t="s">
+      <c r="C10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="I10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="J10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="9" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="20"/>
+      <c r="E11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="24"/>
       <c r="H11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="I11" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="J11" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="47.25" spans="1:17">
+    <row r="12" s="3" customFormat="1" ht="42.75" spans="1:17">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="17" t="s">
         <v>68</v>
       </c>
+      <c r="C12" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="D12" s="14"/>
-      <c r="E12" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="11" t="s">
+      <c r="E12" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="15" t="s">
         <v>48</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="17" t="s">
         <v>26</v>
       </c>
       <c r="Q12" s="3" t="s">
@@ -2142,354 +2293,354 @@
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:16">
-      <c r="A13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="20" t="s">
+      <c r="C13" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="9" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:16">
-      <c r="A14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="9" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:16">
-      <c r="A15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="20" t="s">
+      <c r="C15" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="9" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:16">
-      <c r="A16" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="20" t="s">
+      <c r="C16" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="9" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="31.5" spans="1:16">
-      <c r="A17" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="28.5" spans="1:16">
+      <c r="A17" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="20" t="s">
+      <c r="C17" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="9" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="31.5" spans="1:16">
-      <c r="A18" s="8" t="s">
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="28.5" spans="1:16">
+      <c r="A18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="20" t="s">
+      <c r="C18" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="9" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" s="3" customFormat="1" ht="31.5" spans="1:16">
-      <c r="A19" s="8" t="s">
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="28.5" spans="1:16">
+      <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="20" t="s">
+      <c r="C19" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="9" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" s="3" customFormat="1" spans="1:16">
-      <c r="A20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="20" t="s">
+      <c r="C20" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="9" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="47.25" spans="1:16">
-      <c r="A21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="42.75" spans="1:16">
+      <c r="A21" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="20" t="s">
+      <c r="C21" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="9" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="31.5" spans="1:16">
-      <c r="A22" s="8" t="s">
+      <c r="F21" s="24"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:16">
+      <c r="A22" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="23" t="s">
+      <c r="C22" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="8" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:16">
-      <c r="A23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="16" t="s">
+      <c r="A23" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="23" t="s">
+      <c r="C23" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:16">
-      <c r="A24" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+      <c r="B24" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
+      <c r="B25" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2501,25 +2652,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.3733333333333" customWidth="1"/>
-    <col min="2" max="2" width="39.6266666666667" customWidth="1"/>
-    <col min="3" max="3" width="23.7533333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.7533333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.1259259259259" customWidth="1"/>
+    <col min="2" max="2" width="39.6222222222222" customWidth="1"/>
+    <col min="3" max="3" width="27.7481481481481" customWidth="1"/>
+    <col min="4" max="4" width="23.8740740740741" customWidth="1"/>
+    <col min="5" max="5" width="22.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2531,469 +2683,836 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" t="s">
         <v>121</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>122</v>
       </c>
       <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>123</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>124</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>126</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>127</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>128</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>129</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>130</v>
       </c>
-      <c r="D5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>131</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>132</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D12" t="s">
         <v>132</v>
       </c>
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
         <v>133</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
         <v>134</v>
       </c>
-      <c r="D8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>135</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>136</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
         <v>137</v>
       </c>
-      <c r="D10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
         <v>138</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
         <v>139</v>
       </c>
-      <c r="D11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
         <v>140</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
         <v>141</v>
       </c>
-      <c r="D12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
         <v>142</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
         <v>143</v>
       </c>
-      <c r="D13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
         <v>144</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
         <v>145</v>
       </c>
-      <c r="D14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B27" t="s">
         <v>147</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C27" t="s">
         <v>148</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B28" t="s">
         <v>149</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C28" t="s">
         <v>150</v>
       </c>
-      <c r="D17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D28" t="s">
         <v>151</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B29" t="s">
         <v>153</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C29" t="s">
         <v>154</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D29" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s">
         <v>155</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C30" t="s">
         <v>156</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D30" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D36" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D38" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" t="s">
         <v>180</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C44" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" t="s">
         <v>189</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C49" t="s">
         <v>190</v>
       </c>
-      <c r="D39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>180</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D49" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" t="s">
+        <v>205</v>
+      </c>
+      <c r="D57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" t="s">
+        <v>216</v>
+      </c>
+      <c r="C63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" t="s">
         <v>172</v>
-      </c>
-      <c r="C40" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3002,6 +3521,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3011,35 +3531,35 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="32.8740740740741" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
